--- a/plots/basic_stats/two_var_stats/allmus_accreditation_vs_governance-PC.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_accreditation_vs_governance-PC.xlsx
@@ -365,67 +365,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Cadw</t>
+          <t>Government-Cadw</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Local Authority</t>
+          <t>Government-Local_Authority</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>/Government/National</t>
+          <t>Government-National</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Other</t>
+          <t>Government-Other</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/English Heritage</t>
+          <t>Independent-English_Heritage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Historic Environment Scotland</t>
+          <t>Independent-Historic_Environment_Scotland</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/National Trust</t>
+          <t>Independent-National_Trust</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/National Trust for Scotland</t>
+          <t>Independent-National_Trust_for_Scotland</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Not for profit</t>
+          <t>Independent-Not_for_profit</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Private</t>
+          <t>Independent-Private</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Unknown</t>
+          <t>Independent-Unknown</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>/University</t>
+          <t>University</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>/Unknown</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -444,43 +444,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>14.407</v>
+        <v>13.786</v>
       </c>
       <c r="D2">
-        <v>1.545</v>
+        <v>1.537</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="F2">
-        <v>0.847</v>
+        <v>0.78</v>
       </c>
       <c r="G2">
-        <v>0.199</v>
+        <v>0.284</v>
       </c>
       <c r="H2">
-        <v>3.614</v>
+        <v>3.381</v>
       </c>
       <c r="I2">
-        <v>0.224</v>
+        <v>0.26</v>
       </c>
       <c r="J2">
-        <v>19.392</v>
+        <v>18.893</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="M2">
-        <v>1.77</v>
+        <v>1.726</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>42.023</v>
+        <v>40.695</v>
       </c>
     </row>
     <row r="3">
@@ -490,46 +490,46 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.075</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="C3">
-        <v>8.225</v>
+        <v>8.016</v>
       </c>
       <c r="D3">
-        <v>0.324</v>
+        <v>0.402</v>
       </c>
       <c r="E3">
-        <v>0.15</v>
+        <v>0.213</v>
       </c>
       <c r="F3">
-        <v>0.449</v>
+        <v>0.473</v>
       </c>
       <c r="G3">
-        <v>0.249</v>
+        <v>0.213</v>
       </c>
       <c r="H3">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="I3">
-        <v>0.424</v>
+        <v>0.378</v>
       </c>
       <c r="J3">
-        <v>21.112</v>
+        <v>22.109</v>
       </c>
       <c r="K3">
-        <v>16.825</v>
+        <v>17.758</v>
       </c>
       <c r="L3">
-        <v>5.633</v>
+        <v>5.202</v>
       </c>
       <c r="M3">
-        <v>0.872</v>
+        <v>0.875</v>
       </c>
       <c r="N3">
-        <v>2.642</v>
+        <v>2.601</v>
       </c>
       <c r="O3">
-        <v>57.977</v>
+        <v>59.304</v>
       </c>
     </row>
     <row r="4">
@@ -539,46 +539,46 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.075</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="C4">
-        <v>22.632</v>
+        <v>21.802</v>
       </c>
       <c r="D4">
-        <v>1.869</v>
+        <v>1.939</v>
       </c>
       <c r="E4">
-        <v>0.15</v>
+        <v>0.237</v>
       </c>
       <c r="F4">
-        <v>1.296</v>
+        <v>1.253</v>
       </c>
       <c r="G4">
-        <v>0.448</v>
+        <v>0.497</v>
       </c>
       <c r="H4">
-        <v>4.611</v>
+        <v>4.374</v>
       </c>
       <c r="I4">
-        <v>0.648</v>
+        <v>0.638</v>
       </c>
       <c r="J4">
-        <v>40.504</v>
+        <v>41.002</v>
       </c>
       <c r="K4">
-        <v>16.825</v>
+        <v>17.758</v>
       </c>
       <c r="L4">
-        <v>5.658</v>
+        <v>5.226</v>
       </c>
       <c r="M4">
-        <v>2.642</v>
+        <v>2.601</v>
       </c>
       <c r="N4">
-        <v>2.642</v>
+        <v>2.601</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>99.999</v>
       </c>
     </row>
   </sheetData>
